--- a/templates/QARSF/SYDATA-POtoPOAP Match.xlsx
+++ b/templates/QARSF/SYDATA-POtoPOAP Match.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dellDevonforce\Provar\ErpFinalProject\rsqasampleproj\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Namrata\git\rsqasampleproj\templates\QARSF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{DDAA14ED-34BB-440B-BBF2-0C1A4BBD5C1C}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{9A21C19B-8B29-49B2-A5E4-D6FB2ED83D18}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="2" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{2D3706E6-F74E-412D-B856-F4DCD436F230}" yWindow="-120"/>
+    <workbookView activeTab="2" windowHeight="11040" windowWidth="20730" xWindow="-120" xr2:uid="{2D3706E6-F74E-412D-B856-F4DCD436F230}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="POHeader" r:id="rId1" sheetId="4"/>
@@ -20,6 +20,7 @@
     <sheet name="POAPMatch" r:id="rId5" sheetId="3"/>
     <sheet name="CloseAPBatch" r:id="rId6" sheetId="7"/>
     <sheet name="SYDATAD" r:id="rId7" sheetId="6"/>
+    <sheet name="POReceiptReversal" r:id="rId8" sheetId="8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="77">
   <si>
     <t>Process</t>
   </si>
@@ -159,55 +160,118 @@
     <t>a351K000000eRuC</t>
   </si>
   <si>
-    <t>NPRegression22.18_HomeCurr</t>
-  </si>
-  <si>
-    <t>NPRegression22.18_ForeignCurr</t>
-  </si>
-  <si>
     <t>a3Z1K0000008Bhe</t>
   </si>
   <si>
     <t>NP_Regression</t>
   </si>
   <si>
-    <t>52.0</t>
-  </si>
-  <si>
-    <t>440.0</t>
-  </si>
-  <si>
-    <t>53.0</t>
-  </si>
-  <si>
-    <t>443.0</t>
-  </si>
-  <si>
-    <t>938.0</t>
-  </si>
-  <si>
-    <t>948.0</t>
-  </si>
-  <si>
     <t>a1E1K000008NTam</t>
   </si>
   <si>
-    <t>958.0</t>
-  </si>
-  <si>
-    <t>55.0</t>
-  </si>
-  <si>
-    <t>482.0</t>
-  </si>
-  <si>
-    <t>960.0</t>
-  </si>
-  <si>
-    <t>56.0</t>
-  </si>
-  <si>
-    <t>485.0</t>
+    <t>BankAccount</t>
+  </si>
+  <si>
+    <t>GLCMP</t>
+  </si>
+  <si>
+    <t>Bank of Dad</t>
+  </si>
+  <si>
+    <t>Mountain Manufacturing (100)</t>
+  </si>
+  <si>
+    <t>MMDD Bank Account</t>
+  </si>
+  <si>
+    <t>NPAutoTesting</t>
+  </si>
+  <si>
+    <t>NP_AutoTesting</t>
+  </si>
+  <si>
+    <t>PO Receipt Reversal</t>
+  </si>
+  <si>
+    <t>1533.0</t>
+  </si>
+  <si>
+    <t>103.0</t>
+  </si>
+  <si>
+    <t>869.0</t>
+  </si>
+  <si>
+    <t>1535.0</t>
+  </si>
+  <si>
+    <t>104.0</t>
+  </si>
+  <si>
+    <t>872.0</t>
+  </si>
+  <si>
+    <t>1537.0</t>
+  </si>
+  <si>
+    <t>105.0</t>
+  </si>
+  <si>
+    <t>875.0</t>
+  </si>
+  <si>
+    <t>1539.0</t>
+  </si>
+  <si>
+    <t>106.0</t>
+  </si>
+  <si>
+    <t>878.0</t>
+  </si>
+  <si>
+    <t>1541.0</t>
+  </si>
+  <si>
+    <t>107.0</t>
+  </si>
+  <si>
+    <t>881.0</t>
+  </si>
+  <si>
+    <t>1543.0</t>
+  </si>
+  <si>
+    <t>108.0</t>
+  </si>
+  <si>
+    <t>884.0</t>
+  </si>
+  <si>
+    <t>1549.0</t>
+  </si>
+  <si>
+    <t>110.0</t>
+  </si>
+  <si>
+    <t>898.0</t>
+  </si>
+  <si>
+    <t>1551.0</t>
+  </si>
+  <si>
+    <t>111.0</t>
+  </si>
+  <si>
+    <t>901.0</t>
+  </si>
+  <si>
+    <t>1553.0</t>
+  </si>
+  <si>
+    <t>112.0</t>
+  </si>
+  <si>
+    <t>904.0</t>
   </si>
 </sst>
 </file>
@@ -217,7 +281,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="75" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +300,366 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -318,7 +742,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -344,11 +768,101 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="75">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -362,8 +876,68 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="10" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="11" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="12" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="6" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="13" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="14" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="15" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="16" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="17" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="18" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="19" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="20" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="21" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="22" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="23" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="24" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="25" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="26" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="27" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="13" fillId="0" fontId="28" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="29" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="14" fillId="0" fontId="30" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="31" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="15" fillId="0" fontId="32" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="33" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="16" fillId="0" fontId="34" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="35" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="17" fillId="0" fontId="36" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="37" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="18" fillId="0" fontId="38" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="39" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="19" fillId="0" fontId="40" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="41" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="20" fillId="0" fontId="42" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="43" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="21" fillId="0" fontId="44" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="45" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="22" fillId="0" fontId="46" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="47" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="23" fillId="0" fontId="48" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="49" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="24" fillId="0" fontId="50" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="51" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="25" fillId="0" fontId="52" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="53" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="26" fillId="0" fontId="54" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="55" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="27" fillId="0" fontId="56" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="57" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="28" fillId="0" fontId="58" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="59" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="29" fillId="0" fontId="60" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="61" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="62" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="63" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="31" fillId="0" fontId="64" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="65" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="32" fillId="0" fontId="66" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="67" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="33" fillId="0" fontId="68" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="69" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="34" fillId="0" fontId="70" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="71" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="35" fillId="0" fontId="72" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="74" fillId="0" borderId="36" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -678,19 +1252,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0343F24-40D4-4440-9D54-55228C8E570C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="30.0" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -703,13 +1280,19 @@
       <c r="D1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -717,19 +1300,31 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -778,7 +1373,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
@@ -801,7 +1396,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
@@ -824,7 +1419,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
@@ -847,7 +1442,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
@@ -870,7 +1465,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
@@ -901,8 +1496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C65B3F5-9AF7-4EF8-99A3-B6CFE9D357A8}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,7 +1508,7 @@
     <col min="4" max="4" bestFit="true" customWidth="true" width="18.21484375" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="17.47265625" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="8.3828125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="15.3828125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.37890625" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="18.53125" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="14.83984375" collapsed="true"/>
@@ -975,19 +1570,19 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J2" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1010,7 +1605,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1019,10 +1614,10 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1045,7 +1640,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -1054,10 +1649,10 @@
         <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="K4" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1154,7 +1749,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,7 +1785,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1204,7 +1799,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1247,7 +1842,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1289,4 +1884,120 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5012E768-659B-4D34-80B1-2B0966FD19CC}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/templates/QARSF/SYDATA-POtoPOAP Match.xlsx
+++ b/templates/QARSF/SYDATA-POtoPOAP Match.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Namrata\git\rsqasampleproj\templates\QARSF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{9A21C19B-8B29-49B2-A5E4-D6FB2ED83D18}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{9A9CE4F8-FD1A-4397-87BB-E7DA16DF1EFD}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
     <workbookView activeTab="2" windowHeight="11040" windowWidth="20730" xWindow="-120" xr2:uid="{2D3706E6-F74E-412D-B856-F4DCD436F230}" yWindow="-120"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="60">
   <si>
     <t>Process</t>
   </si>
@@ -175,15 +175,6 @@
     <t>GLCMP</t>
   </si>
   <si>
-    <t>Bank of Dad</t>
-  </si>
-  <si>
-    <t>Mountain Manufacturing (100)</t>
-  </si>
-  <si>
-    <t>MMDD Bank Account</t>
-  </si>
-  <si>
     <t>NPAutoTesting</t>
   </si>
   <si>
@@ -193,78 +184,6 @@
     <t>PO Receipt Reversal</t>
   </si>
   <si>
-    <t>1533.0</t>
-  </si>
-  <si>
-    <t>103.0</t>
-  </si>
-  <si>
-    <t>869.0</t>
-  </si>
-  <si>
-    <t>1535.0</t>
-  </si>
-  <si>
-    <t>104.0</t>
-  </si>
-  <si>
-    <t>872.0</t>
-  </si>
-  <si>
-    <t>1537.0</t>
-  </si>
-  <si>
-    <t>105.0</t>
-  </si>
-  <si>
-    <t>875.0</t>
-  </si>
-  <si>
-    <t>1539.0</t>
-  </si>
-  <si>
-    <t>106.0</t>
-  </si>
-  <si>
-    <t>878.0</t>
-  </si>
-  <si>
-    <t>1541.0</t>
-  </si>
-  <si>
-    <t>107.0</t>
-  </si>
-  <si>
-    <t>881.0</t>
-  </si>
-  <si>
-    <t>1543.0</t>
-  </si>
-  <si>
-    <t>108.0</t>
-  </si>
-  <si>
-    <t>884.0</t>
-  </si>
-  <si>
-    <t>1549.0</t>
-  </si>
-  <si>
-    <t>110.0</t>
-  </si>
-  <si>
-    <t>898.0</t>
-  </si>
-  <si>
-    <t>1551.0</t>
-  </si>
-  <si>
-    <t>111.0</t>
-  </si>
-  <si>
-    <t>901.0</t>
-  </si>
-  <si>
     <t>1553.0</t>
   </si>
   <si>
@@ -272,6 +191,36 @@
   </si>
   <si>
     <t>904.0</t>
+  </si>
+  <si>
+    <t>1567.0</t>
+  </si>
+  <si>
+    <t>916.0</t>
+  </si>
+  <si>
+    <t>a7Z4100000000hb</t>
+  </si>
+  <si>
+    <t>a7Z4100000000hd</t>
+  </si>
+  <si>
+    <t>1569.0</t>
+  </si>
+  <si>
+    <t>113.0</t>
+  </si>
+  <si>
+    <t>919.0</t>
+  </si>
+  <si>
+    <t>1571.0</t>
+  </si>
+  <si>
+    <t>114.0</t>
+  </si>
+  <si>
+    <t>922.0</t>
   </si>
 </sst>
 </file>
@@ -281,7 +230,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="75" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,294 +249,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -742,7 +403,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -786,83 +447,11 @@
     <border>
       <bottom style="thin"/>
     </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -888,56 +477,8 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="22" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="23" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="24" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="25" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="26" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="27" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="13" fillId="0" fontId="28" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="29" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="14" fillId="0" fontId="30" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="31" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="15" fillId="0" fontId="32" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="33" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="16" fillId="0" fontId="34" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="35" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="17" fillId="0" fontId="36" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="37" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="18" fillId="0" fontId="38" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="39" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="19" fillId="0" fontId="40" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="41" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="20" fillId="0" fontId="42" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="43" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="21" fillId="0" fontId="44" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="45" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="22" fillId="0" fontId="46" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="47" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="23" fillId="0" fontId="48" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="49" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="24" fillId="0" fontId="50" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="51" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="25" fillId="0" fontId="52" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="53" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="26" fillId="0" fontId="54" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="55" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="27" fillId="0" fontId="56" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="57" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="28" fillId="0" fontId="58" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="59" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="29" fillId="0" fontId="60" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="61" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="62" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="63" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="31" fillId="0" fontId="64" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="65" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="32" fillId="0" fontId="66" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="67" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="33" fillId="0" fontId="68" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="69" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="34" fillId="0" fontId="70" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="71" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="35" fillId="0" fontId="72" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="74" fillId="0" borderId="36" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1252,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0343F24-40D4-4440-9D54-55228C8E570C}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1292,7 +833,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -1301,10 +842,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" t="s">
-        <v>45</v>
+        <v>52</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1312,7 +853,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -1321,10 +862,18 @@
         <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" t="s">
-        <v>45</v>
+        <v>52</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1496,8 +1045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C65B3F5-9AF7-4EF8-99A3-B6CFE9D357A8}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1506,7 +1055,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.84375" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="21.15234375" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="18.21484375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="17.47265625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.6953125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="8.3828125" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="14.37890625" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
@@ -1564,13 +1113,13 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -1579,10 +1128,10 @@
         <v>41</v>
       </c>
       <c r="J2" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="K2" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1599,13 +1148,13 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1614,10 +1163,10 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="K3" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1634,13 +1183,13 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -1649,10 +1198,10 @@
         <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="K4" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1785,7 +1334,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1842,7 +1391,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1930,7 +1479,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -1953,7 +1502,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -1976,7 +1525,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>

--- a/templates/QARSF/SYDATA-POtoPOAP Match.xlsx
+++ b/templates/QARSF/SYDATA-POtoPOAP Match.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Namrata\git\rsqasampleproj\templates\QARSF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{9A9CE4F8-FD1A-4397-87BB-E7DA16DF1EFD}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{784B039E-A0ED-41D2-8DE5-A07E998A2EA9}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="2" windowHeight="11040" windowWidth="20730" xWindow="-120" xr2:uid="{2D3706E6-F74E-412D-B856-F4DCD436F230}" yWindow="-120"/>
+    <workbookView activeTab="2" windowHeight="15720" windowWidth="29040" xWindow="20370" xr2:uid="{2D3706E6-F74E-412D-B856-F4DCD436F230}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="POHeader" r:id="rId1" sheetId="4"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="63">
   <si>
     <t>Process</t>
   </si>
@@ -184,43 +184,52 @@
     <t>PO Receipt Reversal</t>
   </si>
   <si>
-    <t>1553.0</t>
-  </si>
-  <si>
-    <t>112.0</t>
-  </si>
-  <si>
-    <t>904.0</t>
-  </si>
-  <si>
-    <t>1567.0</t>
-  </si>
-  <si>
-    <t>916.0</t>
-  </si>
-  <si>
     <t>a7Z4100000000hb</t>
   </si>
   <si>
     <t>a7Z4100000000hd</t>
   </si>
   <si>
-    <t>1569.0</t>
-  </si>
-  <si>
-    <t>113.0</t>
-  </si>
-  <si>
-    <t>919.0</t>
-  </si>
-  <si>
-    <t>1571.0</t>
-  </si>
-  <si>
-    <t>114.0</t>
-  </si>
-  <si>
-    <t>922.0</t>
+    <t>1630.0</t>
+  </si>
+  <si>
+    <t>116.0</t>
+  </si>
+  <si>
+    <t>938.0</t>
+  </si>
+  <si>
+    <t>1632.0</t>
+  </si>
+  <si>
+    <t>117.0</t>
+  </si>
+  <si>
+    <t>941.0</t>
+  </si>
+  <si>
+    <t>Bank of Dad</t>
+  </si>
+  <si>
+    <t>MMDD Bank Account</t>
+  </si>
+  <si>
+    <t>1634.0</t>
+  </si>
+  <si>
+    <t>118.0</t>
+  </si>
+  <si>
+    <t>944.0</t>
+  </si>
+  <si>
+    <t>1636.0</t>
+  </si>
+  <si>
+    <t>119.0</t>
+  </si>
+  <si>
+    <t>947.0</t>
   </si>
 </sst>
 </file>
@@ -793,10 +802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0343F24-40D4-4440-9D54-55228C8E570C}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,7 +851,7 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -862,17 +871,9 @@
         <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4">
         <v>100</v>
       </c>
     </row>
@@ -1045,7 +1046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C65B3F5-9AF7-4EF8-99A3-B6CFE9D357A8}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -1113,7 +1114,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -1128,10 +1129,10 @@
         <v>41</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1148,7 +1149,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -1163,10 +1164,10 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1183,7 +1184,7 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F4">
         <v>100</v>
@@ -1198,10 +1199,10 @@
         <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
